--- a/storage/app/import/pixmosaic/pix_all.xlsx
+++ b/storage/app/import/pixmosaic/pix_all.xlsx
@@ -40,9 +40,6 @@
     <t>module_size</t>
   </si>
   <si>
-    <t>img-src</t>
-  </si>
-  <si>
     <t>PIX 115</t>
   </si>
   <si>
@@ -2300,6 +2297,9 @@
   </si>
   <si>
     <t>http://pixmosaic.ru//upload/iblock/cb9/cb9b9a799de74f0653395ce3d36a06a6.jpg</t>
+  </si>
+  <si>
+    <t>img</t>
   </si>
 </sst>
 </file>
@@ -2649,8 +2649,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
-      <selection activeCell="I226" sqref="I226"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2690,4284 +2690,4284 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E27" s="1">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1">
         <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1">
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E30" s="1">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E31" s="1">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1">
         <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1">
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E33" s="1">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1">
         <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1">
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E35" s="1">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1">
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E36" s="1">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1">
         <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E37" s="1">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1">
         <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E38" s="1">
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1">
         <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E39" s="1">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1">
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1">
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1">
         <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1">
         <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1">
         <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1">
         <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E46" s="1">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1">
         <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E47" s="1">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1">
         <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E48" s="1">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1">
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E49" s="1">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1">
         <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E50" s="1">
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1">
         <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E51" s="1">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1">
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E52" s="1">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1">
         <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E53" s="1">
         <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1">
         <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1">
         <v>220</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1">
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E56" s="1">
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1">
         <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E57" s="1">
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1">
         <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E58" s="1">
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1">
         <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E59" s="1">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1">
         <v>110</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E60" s="1">
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1">
         <v>121</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E61" s="1">
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1">
         <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E62" s="1">
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="1">
         <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E63" s="1">
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="1">
         <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E64" s="1">
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="1">
         <v>102</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1">
         <v>116</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E66" s="1">
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1">
         <v>113</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E67" s="1">
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="1">
         <v>104</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E68" s="1">
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="1">
         <v>112</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E69" s="1">
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1">
         <v>112</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E70" s="1">
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1">
         <v>111</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E71" s="1">
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="1">
         <v>107</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E72" s="1">
         <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="1">
         <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="1">
         <v>156</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E74" s="1">
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I74" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" s="1">
         <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E75" s="1">
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1">
         <v>161</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E76" s="1">
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77" s="1">
         <v>161</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E77" s="1">
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" s="1">
         <v>161</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E78" s="1">
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I78" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="1">
         <v>161</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E79" s="1">
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1">
         <v>235</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E80" s="1">
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" s="1">
         <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E81" s="1">
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82" s="1">
         <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E82" s="1">
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1">
         <v>139</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E83" s="1">
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" s="1">
         <v>139</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E84" s="1">
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B85" s="1">
         <v>76</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E85" s="1">
         <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" s="1">
         <v>76</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E86" s="1">
         <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="1">
         <v>154</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E87" s="1">
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B88" s="1">
         <v>154</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E88" s="1">
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B89" s="1">
         <v>94</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E89" s="1">
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" s="1">
         <v>175</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E90" s="1">
         <v>2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="1">
         <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B92" s="1">
         <v>81</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E92" s="1">
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" s="1">
         <v>104</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E93" s="1">
         <v>6</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" s="1">
         <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E94" s="1">
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1">
         <v>113</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E95" s="1">
         <v>6</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B96" s="1">
         <v>76</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E96" s="1">
         <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" s="1">
         <v>71</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B98" s="1">
         <v>113</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E98" s="1">
         <v>6</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B99" s="1">
         <v>102</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E99" s="2">
         <v>45207</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100" s="1">
         <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E100" s="2">
         <v>45207</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B101" s="1">
         <v>102</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E101" s="2">
         <v>45207</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="1">
         <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E102" s="2">
         <v>45207</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E103" s="2">
         <v>45207</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104" s="1">
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E104" s="2">
         <v>45207</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105" s="1">
         <v>134</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E105" s="1">
         <v>6</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="1">
         <v>134</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E106" s="1">
         <v>6</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B107" s="1">
         <v>134</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E107" s="1">
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" s="1">
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E108" s="1">
         <v>6</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B109" s="1">
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E109" s="1">
         <v>6</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" s="1">
         <v>106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E110" s="1">
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111" s="1">
         <v>115</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E111" s="1">
         <v>6</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B112" s="1">
         <v>142</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E112" s="1">
         <v>6</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B113" s="1">
         <v>124</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E113" s="1">
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B114" s="1">
         <v>122</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E114" s="1">
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B115" s="1">
         <v>122</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E115" s="1">
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" s="1">
         <v>83</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B117" s="1">
         <v>85</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="F117" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="1">
         <v>81</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="F118" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B119" s="1">
         <v>81</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B120" s="1">
         <v>35</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B121" s="1">
         <v>35</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B122" s="1">
         <v>35</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B123" s="1">
         <v>35</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B124" s="1">
         <v>35</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B125" s="1">
         <v>35</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" s="1">
         <v>35</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127" s="1">
         <v>35</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128" s="1">
         <v>27</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" s="1">
         <v>27</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B130" s="1">
         <v>27</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B131" s="1">
         <v>27</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B132" s="1">
         <v>27</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B133" s="1">
         <v>35</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B134" s="1">
         <v>27</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B135" s="1">
         <v>35</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B136" s="1">
         <v>109</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E136" s="1">
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B137" s="1">
         <v>124</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B138" s="1">
         <v>124</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B139" s="1">
         <v>109</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E139" s="1">
         <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" s="1">
         <v>121</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E140" s="1">
         <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B141" s="1">
         <v>44</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B142" s="1">
         <v>44</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B143" s="1">
         <v>38</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B144" s="1">
         <v>43</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B145" s="1">
         <v>34</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B146" s="1">
         <v>40</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E146" s="1">
         <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B147" s="1">
         <v>149</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E147" s="1">
         <v>2</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="I147" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B148" s="1">
         <v>179</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E148" s="1">
         <v>2</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="I148" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B149" s="1">
         <v>172</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E149" s="1">
         <v>2</v>
@@ -6976,2449 +6976,2449 @@
         <v>25</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B150" s="1">
         <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E150" s="1">
         <v>2</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B151" s="1">
         <v>149</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E151" s="1">
         <v>2</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B152" s="1">
         <v>110</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E152" s="1">
         <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B153" s="1">
         <v>105</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E153" s="1">
         <v>6</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B154" s="1">
         <v>114</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E154" s="1">
         <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B155" s="1">
         <v>76</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E155" s="1">
         <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B156" s="1">
         <v>80</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E156" s="1">
         <v>6</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B157" s="1">
         <v>73</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E157" s="1">
         <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B158" s="1">
         <v>78</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E158" s="1">
         <v>6</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B159" s="1">
         <v>113</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E159" s="1">
         <v>6</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B160" s="1">
         <v>113</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E160" s="1">
         <v>6</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B161" s="1">
         <v>106</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E161" s="1">
         <v>6</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B162" s="1">
         <v>115</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E162" s="1">
         <v>6</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B163" s="1">
         <v>112</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E163" s="1">
         <v>6</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B164" s="1">
         <v>101</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E164" s="1">
         <v>4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B165" s="1">
         <v>113</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E165" s="1">
         <v>6</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B166" s="1">
         <v>110</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E166" s="1">
         <v>6</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B167" s="1">
         <v>91</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E167" s="1">
         <v>4</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B168" s="1">
         <v>116</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E168" s="1">
         <v>6</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B169" s="1">
         <v>113</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E169" s="1">
         <v>6</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B170" s="1">
         <v>96</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E170" s="1">
         <v>4</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B171" s="1">
         <v>121</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E171" s="1">
         <v>6</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B172" s="1">
         <v>100</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E172" s="1">
         <v>6</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B173" s="1">
         <v>97</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E173" s="1">
         <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B174" s="1">
         <v>113</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E174" s="1">
         <v>6</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B175" s="1">
         <v>102</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E175" s="1">
         <v>6</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B176" s="1">
         <v>85</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E176" s="1">
         <v>4</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B177" s="1">
         <v>124</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E177" s="1">
         <v>6</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B178" s="1">
         <v>117</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E178" s="1">
         <v>6</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B179" s="1">
         <v>113</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E179" s="1">
         <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B180" s="1">
         <v>113</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E180" s="1">
         <v>6</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B181" s="1">
         <v>114</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E181" s="1">
         <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B182" s="1">
         <v>97</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E182" s="1">
         <v>4</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B183" s="1">
         <v>137</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E183" s="1">
         <v>6</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B184" s="1">
         <v>116</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E184" s="1">
         <v>6</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B185" s="1">
         <v>131</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E185" s="1">
         <v>6</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B186" s="1">
         <v>91</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E186" s="1">
         <v>4</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B187" s="1">
         <v>112</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E187" s="1">
         <v>6</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B188" s="1">
         <v>90</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E188" s="1">
         <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="1">
         <v>99</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E189" s="1">
         <v>6</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B190" s="1">
         <v>113</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E190" s="1">
         <v>6</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B191" s="1">
         <v>98</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E191" s="1">
         <v>6</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B192" s="1">
         <v>87</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E192" s="1">
         <v>4</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
         <v>86</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E193" s="1">
         <v>6</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1">
         <v>76</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E194" s="1">
         <v>4</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1">
         <v>107</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E195" s="1">
         <v>6</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1">
         <v>93</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E196" s="1">
         <v>6</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B197" s="1">
         <v>84</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E197" s="1">
         <v>4</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B198" s="1">
         <v>127</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E198" s="1">
         <v>6</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1">
         <v>104</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E199" s="1">
         <v>6</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B200" s="1">
         <v>81</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E200" s="1">
         <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B201" s="1">
         <v>82</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E201" s="1">
         <v>4</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B202" s="1">
         <v>104</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E202" s="1">
         <v>6</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B203" s="1">
         <v>118</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E203" s="1">
         <v>6</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B204" s="1">
         <v>107</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B205" s="1">
         <v>109</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E205" s="1">
         <v>6</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B206" s="1">
         <v>104</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E206" s="1">
         <v>4</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B207" s="1">
         <v>106</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E207" s="1">
         <v>6</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B208" s="1">
         <v>85</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E208" s="1">
         <v>4</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B209" s="1">
         <v>93</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E209" s="1">
         <v>6</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B210" s="1">
         <v>104</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E210" s="1">
         <v>6</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B211" s="1">
         <v>100</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E211" s="1">
         <v>4</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B212" s="1">
         <v>104</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E212" s="1">
         <v>6</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B213" s="1">
         <v>91</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E213" s="1">
         <v>6</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B214" s="1">
         <v>97</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E214" s="1">
         <v>4</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B215" s="1">
         <v>87</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E215" s="1">
         <v>4</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B216" s="1">
         <v>65</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E216" s="1">
         <v>6</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B217" s="1">
         <v>75</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E217" s="1">
         <v>6</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B218" s="1">
         <v>65</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E218" s="1">
         <v>6</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B219" s="1">
         <v>80</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E219" s="1">
         <v>6</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B220" s="1">
         <v>121</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E220" s="1">
         <v>8</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B221" s="1">
         <v>122</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E221" s="1">
         <v>8</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1">
         <v>186</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E222" s="1">
         <v>8</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H222" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="I222" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B223" s="1">
         <v>171</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E223" s="1">
         <v>8</v>
       </c>
       <c r="F223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H223" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="I223" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1">
         <v>124</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E224" s="1">
         <v>8</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H224" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="I224" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B225" s="1">
         <v>145</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E225" s="1">
         <v>6</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B226" s="1">
         <v>156</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E226" s="1">
         <v>7</v>
       </c>
       <c r="F226" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H226" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="I226" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B227" s="1">
         <v>145</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E227" s="1">
         <v>7</v>
       </c>
       <c r="F227" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H227" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="I227" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B228" s="1">
         <v>220</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E228" s="1">
         <v>8</v>
       </c>
       <c r="F228" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H228" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="I228" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B229" s="1">
         <v>220</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E229" s="1">
         <v>8</v>
       </c>
       <c r="F229" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H229" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G229" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="I229" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B230" s="1">
         <v>220</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E230" s="1">
         <v>8</v>
       </c>
       <c r="F230" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H230" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G230" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="I230" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B231" s="1">
         <v>131</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E231" s="1">
         <v>8</v>
       </c>
       <c r="F231" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="I231" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B232" s="1">
         <v>124</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E232" s="1">
         <v>8</v>
       </c>
       <c r="F232" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="I232" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B233" s="1">
         <v>139</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E233" s="1">
         <v>8</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="I233" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/import/pixmosaic/pix_all.xlsx
+++ b/storage/app/import/pixmosaic/pix_all.xlsx
@@ -1615,691 +1615,691 @@
     <t>298х307</t>
   </si>
   <si>
-    <t>http://pixmosaic.ru//upload/iblock/7cf/7cf286e84c7d1071f84c85c8a460a880.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f65/f659406ab488216b6e3bde238a8568c2.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/6ed/6edd23016c8e011dfc55b3cc79be3c1e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f96/f96b816695ff08528f60a1bab0900440.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/5d7/5d7a94b2fac6a08407dcd817c5af4b2d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f4d/f4d62a2448f916b9abf94fa6b481e29b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d4b/d4bb265caf0ceda033d7cf9e30cc3242.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ffd/ffd367e899cfb8c47583cca06d631b85.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ebc/ebc313126f282cca934de616f5a22036.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/57e/57ef82d5ad4102a933897b6e5d7209d1.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e41/e41e7aaacf870267ad762ed40adfbc7a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/73f/73f2efb7023eed74c6b2b54fa7824543.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9c8/9c8ca566b67216eb30b0e8ffb5453782.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/225/2258bc716e0ed1755cb236ac3581794a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9a6/9a6c08e39ab51ff6867c1bb88fd98c40.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/278/2780e25a587e4f7ba57dd17b27d57282.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1f2/1f299cde27a78a1ae0b8ea3a13f3514f.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/3c5/3c5d5bd37a5c575fcae3c4c3c214be91.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a21/a21513720f7c687c9ce8715bb0cb8f74.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/552/5528b0f56e7cebfdbac96239a7480a4d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/50a/50a5d7147923e4a1f9a1422a1d1030d0.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1e7/1e70774874e705ced52bb781441054c9.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b77/b77fb76256cb4e4e991e63ce942062e5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9f9/9f9bcc1d5eb79936132c6a56f2d7eba4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bcd/bcd94bc416e7f8c1a78c2f35720c2fc1.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/af7/af7abdfc72fc62f42c59a2d550cf4e7a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c2d/c2d86dd7ebf0424350033e472303f7f8.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a77/a776fc2174e04c392e7b5e2cdf619016.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/02e/02ea163c3fad99b4d387b817b085b801.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/3c4/3c46bc55c074c0157e83da55e94d7196.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a8e/a8e873afc554f4cbf59dbdd4b9603cb4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f3b/f3b4c7abeda38f6e776b616f17aa7120.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/119/1193c83c11bb88070827b0b2982090dd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d78/d787fcc1670c9be271d7ffde3bf516f2.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ba8/ba827f291ca51e32729fcb0a6a973bfa.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c83/c83c418a855580a679bba545e25045d5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8f3/8f352838abf29f8d6f563f813a551f19.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/91d/91d70487f42b818d8771612ca240cb30.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1d9/1d9a96f4897484e4148e610c6812c128.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a81/a81c68423c66853a1537f42151c80b1d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ec0/ec0d0badabd86feac32bdd4f17543a8d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/420/420e66fa88b90e2633e30f30af8f2c9c.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/01c/01c93f7aba458f51e984ad3789fcd951.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/2de/2de12a719b03694d91b3947e2c815a96.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/516/5169f8b4a7176993dad3664f65cac1fd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/040/0405f61518fe0fa2dda5e6df600a031f.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c9c/c9cb9e1581d8cebd436227b3cd4292ff.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/89a/89a2937ca198bbc7fbca547484de5024.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/cff/cff615745bb57cddb76a91bf0681b05b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/5d0/5d06b71a6def7f46bef0b68c8cba7f33.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/25c/25c9aa3a9a60ce470997f5995f23628c.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1bc/1bc4caa979b92f6c712fd1c225dab658.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4aa/4aaf20f62a445ee657c05878b9c40679.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/5ed/5ed67a1896c1c431be599bc0d1d8867e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/3a7/3a71e95cf1bfa4fe9d70f869161c587e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/215/215a2ef87f1cb2b3c16e3928815fc9fe.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f24/f249381afbbfc232cf8a129950011181.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/698/698cc3b94f984f2a7331e51055a5d2a4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c7c/c7c996847bec41cd82810aaf4cf2eb1d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b65/b652d2a914b46538b8034416f56c3de7.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a80/a80912e83a1127741709f8c69a547017.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b24/b24d404d8d99bb184fe16a9991f79a3e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/814/814e8169072f8caece05a7966a48da56.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/387/3879953647eb987a07c48fe8528e82d2.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/be1/be16cb91cccc277147fb0b1cba9feac3.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/89e/89ea6175826d232480d15199fd53bf36.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/688/688b33fa7231d35cc8762539e5138c39.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/65f/65fb6bdf6b1ff4a8ad6d2e70f2c855cf.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/fdb/fdb577c7b2cfe66247c7b6edc8cfcbe6.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8e2/8e29d98c1e4ddcfdd7d840eb857e1766.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/29d/29d05edf1ab92b85e20aa4b1c442d32c.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9bc/9bcaecd18ddeb5f2d91d9532d369a49e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b02/b02e97ea4326a00e10b8f0fa8ea2de4b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4e7/4e745bec6bce4be66129d904c8cbf255.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/420/4201ffcc60042f214efefd0ef8ecda8f.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/fc9/fc97d63a7bade88793afb6fb12b1c9a1.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/3b7/3b7b6c28d6ff3cb0d4bb87d750972a90.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/0b9/0b93b5497c0fa3f60c69c177d4fd42fd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/58a/58a90cd16c7e6a348efd912c4af5e710.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b91/b91eb3ef0cfb0394ae04f03c1540036b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/cca/cca998433c5a850cf260a6170ba42586.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f85/f850267f6a539a3893b8bb0fb246a2e4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8ad/8ad8ef60359ecba7b9f9f6d3e1922aae.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/410/410f3989173a29e515a8a7ca662ee71a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f97/f97230851e49abf4ac306a43fee729f5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d5f/d5fd00c44ba1b84f54e283b89cfad35a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/181/1811a4adb84c7a5e146d733c74cf8e66.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d0d/d0df68cc8b2dfa3eeb80117621215b6a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/369/36986c9953fc60b26e02b74171719c75.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1df/1df8e3bde0306d872e3a086d077e76b5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/993/993995ec8b5ebd2b58d813e75db399fb.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/cc1/cc1c0a6d3c510f154070d6e9bc4ba7e9.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/72a/72a524165bd7e7cc7c1e9ac348cd30a6.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/6a5/6a5179f10148ba0b2190f503c97dda7d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/7fe/7fe1633baecf5fca8c9fad14acd32737.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a72/a728f0d4b808bf0fb7535c92c0511611.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/379/3793ffdfdebbd6aea3fc507386c4cf04.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/57c/57c2230312e95805f193f8279bc6e2f3.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/184/1845857d8cebb5282b500cd0798a4993.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d77/d77ff7f2b335a6b86c2c25fbdf6428c4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/de7/de77c19c69b3238af83cdbce6c143697.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/939/939a7ef3c56b9cfcd13e697f673d6d4f.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/6b0/6b0ad80e3ebde210f3dd36ece6abf663.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ba4/ba46ee926f569444a68db9cebdbc3854.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e83/e83c04dca533209027985ddcbe011305.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1d8/1d82d93b9f046040f79709f0d0ff6b68.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f57/f5747158945aaf0098813be5c5867c27.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d6e/d6e14cafdf14fbc1dc3ab6831b6bb57e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/221/221106b1f7e80d7dac78c6b7534f9840.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/6c9/6c9d015b331d7fd18cc5ae8a5cd91fcd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b50/b506c5c9df7d1251eb08af32c3e4adcd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/cfb/cfbbbff5f9ddc09f850f4f9b35a79105.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ace/ace04e7df37cbddb632583267162e297.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a2d/a2db422bc83af0c936004ec49e25c919.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1bf/1bf6c3488a1221a8632334f6d0c78ad9.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/2b4/2b4fa9af339360a870a31cba3762afaa.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/2d9/2d9f71636a6bde66b5a9785faf78efce.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/416/416ddc576a50c109d48e58716da964fb.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1ca/1ca6bcb75f42e9d5951199a916828afa.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/26e/26e4570d95282746b0269b0f823c9821.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/0e9/0e94fabd91f94ff006f7b9e00fa4145a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/442/442053997ac391c7299e1220b7a2a545.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/046/0460f30726112932a1b25be9ea045382.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/df9/df990eb28e6bc07d1b7f5adc9c60efd1.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/7de/7de6ce8bcb32be43e33b670366e02b6b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/3c7/3c737681f8a9e35543217ea78bc41c1d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a7d/a7dd336368f60d8ecaa82d6077bcefd6.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ddf/ddf84c7068397400ef944c88f417f338.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bdb/bdb9a4e54203019d2fc19ce37c445b15.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b93/b93c0579426463bcf1bfd46fe16bd3a6.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/fe1/fe1bb50c3663c12e4a713ef6377827d5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ce8/ce862e5e99c97baf42d58a6180331a1e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/0d5/0d5e51e23a2153198fec4e3df56b65ec.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/b24/b24b51807ab094d86561534b861e85c5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/07e/07e8ba9e7c997c9b44985233a885ca87.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/96b/96b24e579e6e33c3097de69f3d654200.png</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/763/763a411f05aa5131fb754e2509002c07.png</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1da/1dae93074a302436288d897f52b41b36.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/97d/97d417e18bbada05b97a4eb3b9ba15b4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a23/a23039f794e7c15a21a9f1457af80844.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/378/37843f662fef4902900b51e2345c1813.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e97/e974d516967ce3ffd13af1b2e98ec971.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/5cf/5cfe1e8f32411b82e3ed2541f0752c54.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a4d/a4d6ecf99c61b1a06394af48875a912d.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e1b/e1bf783603cbe2261b1efb89c0f9da24.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ee5/ee5d6c91bc82cdaa6e13f5ca6f52feae.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/0ab/0ab3a44ffeb6bf335d7de556b0c1092f.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4ea/4eab1f9e6384f842aa5c236b475bbb59.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/512/512a7d6c5ecaaf70e4236c33d68388c4.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4d0/4d0113e698c245db17321ceef4a23e59.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9e5/9e55db37747f87fce06103ce89516b0b.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8c4/8c4c52d9bcd96a41580bcd3077cb75e1.jpeg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8d5/8d58f48d81651755fb2afa4ed5ab102a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/39f/39f2414efc085fa7b7f91497fe5337c1.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/04c/04c5668c87a97524295d190bbb265508.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/068/068d4710008c22f17e2dfc0b95fe6760.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bce/bce0c5eb4d02d7292444f39c45241a00.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a50/a50977bc20c36bc4046bda7a5620bb27.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ea2/ea2aca7821540ce517e088c4e6eea333.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bdb/bdbc857371b5f8e0a9c8773509ca5e2a.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4ae/4ae37f16f3192b4ebffa42e3b9380239.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1a5/1a54d56f38c7ec97e13be444fee6993b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f0e/f0e33ba5c2d4ed8ac83694b8b63084fc.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/753/7532e3d00f4ce51e4811fd38c9941613.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/530/5305cb3c65cccecd94c5c506efa05def.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d93/d9370a3a6d9ee6d567f79274477268dd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/2f6/2f647a708ff3b5eedc5eb2db0e2a7443.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/814/814b7f776d28fdbdea2b5b645cf7263c.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1cf/1cf39e6f068517fe6a40e5857574de61.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1eb/1eb5af2c7555a736483c764b8e8ef50e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/beb/beba2cbd6f3bc19b9efb7946faacee59.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/fb6/fb6b308630a917ecce6621f93052e884.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c83/c839abffa084692b005a456fc2dbdd75.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/5a9/5a9c8b3d9bc07690fc3ab14f560eb075.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ecb/ecb8f869dc88fa9ae76dd3230ac82ce6.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bc2/bc2707c86c3e5f482a2f8d94f4b37c91.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f4f/f4f6889e1c26a6ef2f3e1396e0abe774.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/89a/89a65b69ead8c2a32fdb782fb77eac58.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a5f/a5f2e7704baa5c4b155fba2822d8de8d.png</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e7e/e7edf2b4a814138728a3bd82da3e4c1f.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/7f5/7f57a138e7fa6f2e92eb3557010d8580.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/86f/86fbcb40f7251a7423b3ca23bfa7d259.png</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/ee6/ee6a1000df74194656c52cef09e56b50.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a06/a068aa0adff907e623fd36643b31eda6.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f60/f6039e84717f2fad8476a5df8ed7a61d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/7c1/7c18f71e8969a23345fcf4dd70aa3e62.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/3c3/3c3e7d0ccb84ed3cfaffb9370e8261e9.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/6d3/6d3d0d2ccabe70fbeb81dc8a6b9721cd.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8bf/8bf8b3343c117a07a6f9cc2b01e323e3.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/5a4/5a4cab8fc8735462767d34ec360b3810.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e2b/e2b844ca990c9bad5cac1df06a8c4b4b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/053/053654e0891ef3553e9d49c2573ca51e.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/378/378b74d6da88342fa9a29e1538c0f2e8.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/f75/f7571578febb25ed5ad5c3bf55cf615c.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/aef/aef0da13cddd5665f85dd571f6170453.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d64/d641bbca7a0335e5ed05bbc6a1a070c4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4ee/4ee252d60775e3106efd73235ece0552.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/4a4/4a496cfd36f0b8b60ebefc46bff78b2d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/658/658872b983f5d947e7132694e6dcecd3.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9e4/9e485a17f24bf029f141b981aba043f5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/390/3903fe64cdd454f3b68c12c5c4e6f2a1.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/071/0716ffd51d8d37a7063ae89299faa6bb.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/748/7486df059a7045ae1d3b5aebe30af776.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/fe6/fe6d2c114106d2b7cbf754125bb94671.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1d9/1d96b032845923875c0104f31d13c815.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/1f8/1f8944b44fbb4fa80c7137bef7a84dd2.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d2b/d2b159e38c28f0f42a1454f552992177.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/469/4693ea23ee125e4f66ab53a34c073bb4.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/84e/84e39a69be2a736a01615414853fae53.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/448/4483aa893c492ce073709aac0ae99109.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/efa/efab5d344e9f664bcef53923fbb113e3.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bb4/bb4877dfdb187af8971089fa080273a2.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/7c4/7c448b413d0c5c0e162de07de73b9f05.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/a76/a76ba3a58b72b2060d16d12498a7e303.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c09/c09abb028986ca4367106a7cb537f9bb.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/2ef/2efe42afd823f4c0b847395b35f05d3d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e8b/e8b4abdf5c180ff45030f214f09eef79.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/bf9/bf984ad96a5ab71d22a37e687b8c957d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/174/17422113cf10bf808255a31c7807d9f5.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/7d8/7d8654eac43d93fe979077700c088bef.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/9a0/9a060a3274f6e5a52af90d0879d36baf.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/e3d/e3dd5ea2813ca5e8c1d70a54fbaa754d.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/689/6897bab4b2fae4a95a7a0c96438a255b.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/8d3/8d38b7602506acd3632c5f7c25ae3885.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/c17/c17f7bf7168a4dcf40e6ffb24324df99.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/d46/d464b0758af1956d8edce07abcb24635.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/fae/fae6a494e86a88e84e0b0676794cbc7c.jpg</t>
-  </si>
-  <si>
-    <t>http://pixmosaic.ru//upload/iblock/cb9/cb9b9a799de74f0653395ce3d36a06a6.jpg</t>
-  </si>
-  <si>
     <t>img</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7cf/7cf286e84c7d1071f84c85c8a460a880.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f65/f659406ab488216b6e3bde238a8568c2.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/6ed/6edd23016c8e011dfc55b3cc79be3c1e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f96/f96b816695ff08528f60a1bab0900440.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/5d7/5d7a94b2fac6a08407dcd817c5af4b2d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f4d/f4d62a2448f916b9abf94fa6b481e29b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d4b/d4bb265caf0ceda033d7cf9e30cc3242.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ffd/ffd367e899cfb8c47583cca06d631b85.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ebc/ebc313126f282cca934de616f5a22036.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/57e/57ef82d5ad4102a933897b6e5d7209d1.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e41/e41e7aaacf870267ad762ed40adfbc7a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/73f/73f2efb7023eed74c6b2b54fa7824543.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9c8/9c8ca566b67216eb30b0e8ffb5453782.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/225/2258bc716e0ed1755cb236ac3581794a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9a6/9a6c08e39ab51ff6867c1bb88fd98c40.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/278/2780e25a587e4f7ba57dd17b27d57282.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1f2/1f299cde27a78a1ae0b8ea3a13f3514f.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/3c5/3c5d5bd37a5c575fcae3c4c3c214be91.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a21/a21513720f7c687c9ce8715bb0cb8f74.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/552/5528b0f56e7cebfdbac96239a7480a4d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/50a/50a5d7147923e4a1f9a1422a1d1030d0.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1e7/1e70774874e705ced52bb781441054c9.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b77/b77fb76256cb4e4e991e63ce942062e5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9f9/9f9bcc1d5eb79936132c6a56f2d7eba4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bcd/bcd94bc416e7f8c1a78c2f35720c2fc1.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/af7/af7abdfc72fc62f42c59a2d550cf4e7a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c2d/c2d86dd7ebf0424350033e472303f7f8.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a77/a776fc2174e04c392e7b5e2cdf619016.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/02e/02ea163c3fad99b4d387b817b085b801.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/3c4/3c46bc55c074c0157e83da55e94d7196.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a8e/a8e873afc554f4cbf59dbdd4b9603cb4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f3b/f3b4c7abeda38f6e776b616f17aa7120.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/119/1193c83c11bb88070827b0b2982090dd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d78/d787fcc1670c9be271d7ffde3bf516f2.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ba8/ba827f291ca51e32729fcb0a6a973bfa.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c83/c83c418a855580a679bba545e25045d5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8f3/8f352838abf29f8d6f563f813a551f19.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/91d/91d70487f42b818d8771612ca240cb30.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1d9/1d9a96f4897484e4148e610c6812c128.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a81/a81c68423c66853a1537f42151c80b1d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ec0/ec0d0badabd86feac32bdd4f17543a8d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/420/420e66fa88b90e2633e30f30af8f2c9c.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/01c/01c93f7aba458f51e984ad3789fcd951.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/2de/2de12a719b03694d91b3947e2c815a96.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/516/5169f8b4a7176993dad3664f65cac1fd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/040/0405f61518fe0fa2dda5e6df600a031f.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c9c/c9cb9e1581d8cebd436227b3cd4292ff.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/89a/89a2937ca198bbc7fbca547484de5024.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/cff/cff615745bb57cddb76a91bf0681b05b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/5d0/5d06b71a6def7f46bef0b68c8cba7f33.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/25c/25c9aa3a9a60ce470997f5995f23628c.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1bc/1bc4caa979b92f6c712fd1c225dab658.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4aa/4aaf20f62a445ee657c05878b9c40679.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/5ed/5ed67a1896c1c431be599bc0d1d8867e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/3a7/3a71e95cf1bfa4fe9d70f869161c587e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/215/215a2ef87f1cb2b3c16e3928815fc9fe.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f24/f249381afbbfc232cf8a129950011181.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/698/698cc3b94f984f2a7331e51055a5d2a4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c7c/c7c996847bec41cd82810aaf4cf2eb1d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b65/b652d2a914b46538b8034416f56c3de7.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a80/a80912e83a1127741709f8c69a547017.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b24/b24d404d8d99bb184fe16a9991f79a3e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/814/814e8169072f8caece05a7966a48da56.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/387/3879953647eb987a07c48fe8528e82d2.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/be1/be16cb91cccc277147fb0b1cba9feac3.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/89e/89ea6175826d232480d15199fd53bf36.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/688/688b33fa7231d35cc8762539e5138c39.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/65f/65fb6bdf6b1ff4a8ad6d2e70f2c855cf.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/fdb/fdb577c7b2cfe66247c7b6edc8cfcbe6.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8e2/8e29d98c1e4ddcfdd7d840eb857e1766.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/29d/29d05edf1ab92b85e20aa4b1c442d32c.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9bc/9bcaecd18ddeb5f2d91d9532d369a49e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b02/b02e97ea4326a00e10b8f0fa8ea2de4b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4e7/4e745bec6bce4be66129d904c8cbf255.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/420/4201ffcc60042f214efefd0ef8ecda8f.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/fc9/fc97d63a7bade88793afb6fb12b1c9a1.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/3b7/3b7b6c28d6ff3cb0d4bb87d750972a90.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/0b9/0b93b5497c0fa3f60c69c177d4fd42fd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/58a/58a90cd16c7e6a348efd912c4af5e710.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b91/b91eb3ef0cfb0394ae04f03c1540036b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/cca/cca998433c5a850cf260a6170ba42586.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f85/f850267f6a539a3893b8bb0fb246a2e4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8ad/8ad8ef60359ecba7b9f9f6d3e1922aae.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/410/410f3989173a29e515a8a7ca662ee71a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f97/f97230851e49abf4ac306a43fee729f5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d5f/d5fd00c44ba1b84f54e283b89cfad35a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/181/1811a4adb84c7a5e146d733c74cf8e66.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d0d/d0df68cc8b2dfa3eeb80117621215b6a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/369/36986c9953fc60b26e02b74171719c75.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1df/1df8e3bde0306d872e3a086d077e76b5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/993/993995ec8b5ebd2b58d813e75db399fb.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/cc1/cc1c0a6d3c510f154070d6e9bc4ba7e9.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/72a/72a524165bd7e7cc7c1e9ac348cd30a6.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/6a5/6a5179f10148ba0b2190f503c97dda7d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7fe/7fe1633baecf5fca8c9fad14acd32737.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a72/a728f0d4b808bf0fb7535c92c0511611.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/379/3793ffdfdebbd6aea3fc507386c4cf04.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/57c/57c2230312e95805f193f8279bc6e2f3.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/184/1845857d8cebb5282b500cd0798a4993.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d77/d77ff7f2b335a6b86c2c25fbdf6428c4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/de7/de77c19c69b3238af83cdbce6c143697.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/939/939a7ef3c56b9cfcd13e697f673d6d4f.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/6b0/6b0ad80e3ebde210f3dd36ece6abf663.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ba4/ba46ee926f569444a68db9cebdbc3854.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e83/e83c04dca533209027985ddcbe011305.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1d8/1d82d93b9f046040f79709f0d0ff6b68.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f57/f5747158945aaf0098813be5c5867c27.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d6e/d6e14cafdf14fbc1dc3ab6831b6bb57e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/221/221106b1f7e80d7dac78c6b7534f9840.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/6c9/6c9d015b331d7fd18cc5ae8a5cd91fcd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b50/b506c5c9df7d1251eb08af32c3e4adcd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/cfb/cfbbbff5f9ddc09f850f4f9b35a79105.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ace/ace04e7df37cbddb632583267162e297.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a2d/a2db422bc83af0c936004ec49e25c919.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1bf/1bf6c3488a1221a8632334f6d0c78ad9.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/2b4/2b4fa9af339360a870a31cba3762afaa.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/2d9/2d9f71636a6bde66b5a9785faf78efce.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/416/416ddc576a50c109d48e58716da964fb.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1ca/1ca6bcb75f42e9d5951199a916828afa.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/26e/26e4570d95282746b0269b0f823c9821.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/0e9/0e94fabd91f94ff006f7b9e00fa4145a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/442/442053997ac391c7299e1220b7a2a545.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/046/0460f30726112932a1b25be9ea045382.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/df9/df990eb28e6bc07d1b7f5adc9c60efd1.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7de/7de6ce8bcb32be43e33b670366e02b6b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/3c7/3c737681f8a9e35543217ea78bc41c1d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a7d/a7dd336368f60d8ecaa82d6077bcefd6.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ddf/ddf84c7068397400ef944c88f417f338.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bdb/bdb9a4e54203019d2fc19ce37c445b15.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b93/b93c0579426463bcf1bfd46fe16bd3a6.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/fe1/fe1bb50c3663c12e4a713ef6377827d5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ce8/ce862e5e99c97baf42d58a6180331a1e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/0d5/0d5e51e23a2153198fec4e3df56b65ec.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/b24/b24b51807ab094d86561534b861e85c5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/07e/07e8ba9e7c997c9b44985233a885ca87.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/96b/96b24e579e6e33c3097de69f3d654200.png</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/763/763a411f05aa5131fb754e2509002c07.png</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1da/1dae93074a302436288d897f52b41b36.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/97d/97d417e18bbada05b97a4eb3b9ba15b4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a23/a23039f794e7c15a21a9f1457af80844.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/378/37843f662fef4902900b51e2345c1813.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e97/e974d516967ce3ffd13af1b2e98ec971.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/5cf/5cfe1e8f32411b82e3ed2541f0752c54.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a4d/a4d6ecf99c61b1a06394af48875a912d.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e1b/e1bf783603cbe2261b1efb89c0f9da24.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ee5/ee5d6c91bc82cdaa6e13f5ca6f52feae.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/0ab/0ab3a44ffeb6bf335d7de556b0c1092f.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4ea/4eab1f9e6384f842aa5c236b475bbb59.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/512/512a7d6c5ecaaf70e4236c33d68388c4.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4d0/4d0113e698c245db17321ceef4a23e59.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9e5/9e55db37747f87fce06103ce89516b0b.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8c4/8c4c52d9bcd96a41580bcd3077cb75e1.jpeg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8d5/8d58f48d81651755fb2afa4ed5ab102a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/39f/39f2414efc085fa7b7f91497fe5337c1.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/04c/04c5668c87a97524295d190bbb265508.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/068/068d4710008c22f17e2dfc0b95fe6760.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bce/bce0c5eb4d02d7292444f39c45241a00.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a50/a50977bc20c36bc4046bda7a5620bb27.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ea2/ea2aca7821540ce517e088c4e6eea333.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bdb/bdbc857371b5f8e0a9c8773509ca5e2a.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4ae/4ae37f16f3192b4ebffa42e3b9380239.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1a5/1a54d56f38c7ec97e13be444fee6993b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f0e/f0e33ba5c2d4ed8ac83694b8b63084fc.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/753/7532e3d00f4ce51e4811fd38c9941613.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/530/5305cb3c65cccecd94c5c506efa05def.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d93/d9370a3a6d9ee6d567f79274477268dd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/2f6/2f647a708ff3b5eedc5eb2db0e2a7443.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/814/814b7f776d28fdbdea2b5b645cf7263c.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1cf/1cf39e6f068517fe6a40e5857574de61.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1eb/1eb5af2c7555a736483c764b8e8ef50e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/beb/beba2cbd6f3bc19b9efb7946faacee59.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/fb6/fb6b308630a917ecce6621f93052e884.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c83/c839abffa084692b005a456fc2dbdd75.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/5a9/5a9c8b3d9bc07690fc3ab14f560eb075.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ecb/ecb8f869dc88fa9ae76dd3230ac82ce6.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bc2/bc2707c86c3e5f482a2f8d94f4b37c91.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f4f/f4f6889e1c26a6ef2f3e1396e0abe774.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/89a/89a65b69ead8c2a32fdb782fb77eac58.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a5f/a5f2e7704baa5c4b155fba2822d8de8d.png</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e7e/e7edf2b4a814138728a3bd82da3e4c1f.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7f5/7f57a138e7fa6f2e92eb3557010d8580.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/86f/86fbcb40f7251a7423b3ca23bfa7d259.png</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/ee6/ee6a1000df74194656c52cef09e56b50.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a06/a068aa0adff907e623fd36643b31eda6.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f60/f6039e84717f2fad8476a5df8ed7a61d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7c1/7c18f71e8969a23345fcf4dd70aa3e62.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/3c3/3c3e7d0ccb84ed3cfaffb9370e8261e9.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/6d3/6d3d0d2ccabe70fbeb81dc8a6b9721cd.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8bf/8bf8b3343c117a07a6f9cc2b01e323e3.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/5a4/5a4cab8fc8735462767d34ec360b3810.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e2b/e2b844ca990c9bad5cac1df06a8c4b4b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/053/053654e0891ef3553e9d49c2573ca51e.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/378/378b74d6da88342fa9a29e1538c0f2e8.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/f75/f7571578febb25ed5ad5c3bf55cf615c.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/aef/aef0da13cddd5665f85dd571f6170453.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d64/d641bbca7a0335e5ed05bbc6a1a070c4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4ee/4ee252d60775e3106efd73235ece0552.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/4a4/4a496cfd36f0b8b60ebefc46bff78b2d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/658/658872b983f5d947e7132694e6dcecd3.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9e4/9e485a17f24bf029f141b981aba043f5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/390/3903fe64cdd454f3b68c12c5c4e6f2a1.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/071/0716ffd51d8d37a7063ae89299faa6bb.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/748/7486df059a7045ae1d3b5aebe30af776.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/fe6/fe6d2c114106d2b7cbf754125bb94671.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1d9/1d96b032845923875c0104f31d13c815.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/1f8/1f8944b44fbb4fa80c7137bef7a84dd2.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d2b/d2b159e38c28f0f42a1454f552992177.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/469/4693ea23ee125e4f66ab53a34c073bb4.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/84e/84e39a69be2a736a01615414853fae53.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/448/4483aa893c492ce073709aac0ae99109.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/efa/efab5d344e9f664bcef53923fbb113e3.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bb4/bb4877dfdb187af8971089fa080273a2.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7c4/7c448b413d0c5c0e162de07de73b9f05.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/a76/a76ba3a58b72b2060d16d12498a7e303.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c09/c09abb028986ca4367106a7cb537f9bb.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/2ef/2efe42afd823f4c0b847395b35f05d3d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e8b/e8b4abdf5c180ff45030f214f09eef79.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/bf9/bf984ad96a5ab71d22a37e687b8c957d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/174/17422113cf10bf808255a31c7807d9f5.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/7d8/7d8654eac43d93fe979077700c088bef.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/9a0/9a060a3274f6e5a52af90d0879d36baf.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/e3d/e3dd5ea2813ca5e8c1d70a54fbaa754d.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/689/6897bab4b2fae4a95a7a0c96438a255b.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/8d3/8d38b7602506acd3632c5f7c25ae3885.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/c17/c17f7bf7168a4dcf40e6ffb24324df99.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/d46/d464b0758af1956d8edce07abcb24635.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/fae/fae6a494e86a88e84e0b0676794cbc7c.jpg</t>
+  </si>
+  <si>
+    <t>https://pixmosaic.ru//upload/iblock/cb9/cb9b9a799de74f0653395ce3d36a06a6.jpg</t>
   </si>
 </sst>
 </file>
@@ -2649,8 +2649,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2690,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>761</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2719,7 +2719,7 @@
         <v>465</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2748,7 +2748,7 @@
         <v>465</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2777,7 +2777,7 @@
         <v>465</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2806,7 +2806,7 @@
         <v>465</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2835,7 +2835,7 @@
         <v>465</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2864,7 +2864,7 @@
         <v>465</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2893,7 +2893,7 @@
         <v>465</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2922,7 +2922,7 @@
         <v>465</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2951,7 +2951,7 @@
         <v>465</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2980,7 +2980,7 @@
         <v>465</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3009,7 +3009,7 @@
         <v>465</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3038,7 +3038,7 @@
         <v>465</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3067,7 +3067,7 @@
         <v>465</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3096,7 +3096,7 @@
         <v>465</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3125,7 +3125,7 @@
         <v>465</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3154,7 +3154,7 @@
         <v>465</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3183,7 +3183,7 @@
         <v>465</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3212,7 +3212,7 @@
         <v>465</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3241,7 +3241,7 @@
         <v>465</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3270,7 +3270,7 @@
         <v>465</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3299,7 +3299,7 @@
         <v>465</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3328,7 +3328,7 @@
         <v>465</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3357,7 +3357,7 @@
         <v>465</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3386,7 +3386,7 @@
         <v>465</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3415,7 +3415,7 @@
         <v>469</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3444,7 +3444,7 @@
         <v>471</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3473,7 +3473,7 @@
         <v>473</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3502,7 +3502,7 @@
         <v>474</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3531,7 +3531,7 @@
         <v>471</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3560,7 +3560,7 @@
         <v>471</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3589,7 +3589,7 @@
         <v>471</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3618,7 +3618,7 @@
         <v>471</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3647,7 +3647,7 @@
         <v>476</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3676,7 +3676,7 @@
         <v>476</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3705,7 +3705,7 @@
         <v>476</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3734,7 +3734,7 @@
         <v>476</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3763,7 +3763,7 @@
         <v>476</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3792,7 +3792,7 @@
         <v>476</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3821,7 +3821,7 @@
         <v>469</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3850,7 +3850,7 @@
         <v>469</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3879,7 +3879,7 @@
         <v>469</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3908,7 +3908,7 @@
         <v>469</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3937,7 +3937,7 @@
         <v>480</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3966,7 +3966,7 @@
         <v>469</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3995,7 +3995,7 @@
         <v>483</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4024,7 +4024,7 @@
         <v>483</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4053,7 +4053,7 @@
         <v>484</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4082,7 +4082,7 @@
         <v>484</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4111,7 +4111,7 @@
         <v>486</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4140,7 +4140,7 @@
         <v>488</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4169,7 +4169,7 @@
         <v>488</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4227,7 +4227,7 @@
         <v>491</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4256,7 +4256,7 @@
         <v>491</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4285,7 +4285,7 @@
         <v>476</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4314,7 +4314,7 @@
         <v>476</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4343,7 +4343,7 @@
         <v>495</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4372,7 +4372,7 @@
         <v>476</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4401,7 +4401,7 @@
         <v>476</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4430,7 +4430,7 @@
         <v>476</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4459,7 +4459,7 @@
         <v>476</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4488,7 +4488,7 @@
         <v>476</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4517,7 +4517,7 @@
         <v>476</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4546,7 +4546,7 @@
         <v>476</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4575,7 +4575,7 @@
         <v>476</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4604,7 +4604,7 @@
         <v>476</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4633,7 +4633,7 @@
         <v>476</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4662,7 +4662,7 @@
         <v>476</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4691,7 +4691,7 @@
         <v>476</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4720,7 +4720,7 @@
         <v>476</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4749,7 +4749,7 @@
         <v>476</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4778,7 +4778,7 @@
         <v>476</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4807,7 +4807,7 @@
         <v>500</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4836,7 +4836,7 @@
         <v>500</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4865,7 +4865,7 @@
         <v>500</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4894,7 +4894,7 @@
         <v>500</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4923,7 +4923,7 @@
         <v>500</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4952,7 +4952,7 @@
         <v>500</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4981,7 +4981,7 @@
         <v>476</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5010,7 +5010,7 @@
         <v>476</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5039,7 +5039,7 @@
         <v>476</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5068,7 +5068,7 @@
         <v>476</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5097,7 +5097,7 @@
         <v>476</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5126,7 +5126,7 @@
         <v>476</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5155,7 +5155,7 @@
         <v>476</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5184,7 +5184,7 @@
         <v>476</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5213,7 +5213,7 @@
         <v>476</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5242,7 +5242,7 @@
         <v>476</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5271,7 +5271,7 @@
         <v>476</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5300,7 +5300,7 @@
         <v>491</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5329,7 +5329,7 @@
         <v>506</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5358,7 +5358,7 @@
         <v>506</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5387,7 +5387,7 @@
         <v>506</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5416,7 +5416,7 @@
         <v>506</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5445,7 +5445,7 @@
         <v>506</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5474,7 +5474,7 @@
         <v>506</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5503,7 +5503,7 @@
         <v>508</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5532,7 +5532,7 @@
         <v>506</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5561,7 +5561,7 @@
         <v>506</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5590,7 +5590,7 @@
         <v>506</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5619,7 +5619,7 @@
         <v>506</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5648,7 +5648,7 @@
         <v>506</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5677,7 +5677,7 @@
         <v>506</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5706,7 +5706,7 @@
         <v>491</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5735,7 +5735,7 @@
         <v>491</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5764,7 +5764,7 @@
         <v>491</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5793,7 +5793,7 @@
         <v>491</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5822,7 +5822,7 @@
         <v>491</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5851,7 +5851,7 @@
         <v>491</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5880,7 +5880,7 @@
         <v>491</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5909,7 +5909,7 @@
         <v>491</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5938,7 +5938,7 @@
         <v>491</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5967,7 +5967,7 @@
         <v>491</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5996,7 +5996,7 @@
         <v>491</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6025,7 +6025,7 @@
         <v>491</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6054,7 +6054,7 @@
         <v>491</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6083,7 +6083,7 @@
         <v>491</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6112,7 +6112,7 @@
         <v>491</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6141,7 +6141,7 @@
         <v>476</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6170,7 +6170,7 @@
         <v>476</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6199,7 +6199,7 @@
         <v>476</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6228,7 +6228,7 @@
         <v>476</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6257,7 +6257,7 @@
         <v>476</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6286,7 +6286,7 @@
         <v>476</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6315,7 +6315,7 @@
         <v>476</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6344,7 +6344,7 @@
         <v>476</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6373,7 +6373,7 @@
         <v>476</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6402,7 +6402,7 @@
         <v>476</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6431,7 +6431,7 @@
         <v>476</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6460,7 +6460,7 @@
         <v>476</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6489,7 +6489,7 @@
         <v>476</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6518,7 +6518,7 @@
         <v>476</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6547,7 +6547,7 @@
         <v>476</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6576,7 +6576,7 @@
         <v>476</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6605,7 +6605,7 @@
         <v>491</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6634,7 +6634,7 @@
         <v>476</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6663,7 +6663,7 @@
         <v>476</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6692,7 +6692,7 @@
         <v>491</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6721,7 +6721,7 @@
         <v>491</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6750,7 +6750,7 @@
         <v>465</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6779,7 +6779,7 @@
         <v>465</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6808,7 +6808,7 @@
         <v>465</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6837,7 +6837,7 @@
         <v>465</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6866,7 +6866,7 @@
         <v>465</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6895,7 +6895,7 @@
         <v>465</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6924,7 +6924,7 @@
         <v>517</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6953,7 +6953,7 @@
         <v>519</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6982,7 +6982,7 @@
         <v>520</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7011,7 +7011,7 @@
         <v>521</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7040,7 +7040,7 @@
         <v>519</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7069,7 +7069,7 @@
         <v>491</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7098,7 +7098,7 @@
         <v>491</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7127,7 +7127,7 @@
         <v>476</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7156,7 +7156,7 @@
         <v>491</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7185,7 +7185,7 @@
         <v>491</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7214,7 +7214,7 @@
         <v>491</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7243,7 +7243,7 @@
         <v>491</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7272,7 +7272,7 @@
         <v>491</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7301,7 +7301,7 @@
         <v>491</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7330,7 +7330,7 @@
         <v>491</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7359,7 +7359,7 @@
         <v>491</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7388,7 +7388,7 @@
         <v>491</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7417,7 +7417,7 @@
         <v>491</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7446,7 +7446,7 @@
         <v>506</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7475,7 +7475,7 @@
         <v>506</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7504,7 +7504,7 @@
         <v>506</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7533,7 +7533,7 @@
         <v>506</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -7562,7 +7562,7 @@
         <v>506</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -7591,7 +7591,7 @@
         <v>506</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -7620,7 +7620,7 @@
         <v>491</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7649,7 +7649,7 @@
         <v>506</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7678,7 +7678,7 @@
         <v>506</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7707,7 +7707,7 @@
         <v>506</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7736,7 +7736,7 @@
         <v>491</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7765,7 +7765,7 @@
         <v>491</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7794,7 +7794,7 @@
         <v>491</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7823,7 +7823,7 @@
         <v>491</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7852,7 +7852,7 @@
         <v>491</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7881,7 +7881,7 @@
         <v>506</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7910,7 +7910,7 @@
         <v>491</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7939,7 +7939,7 @@
         <v>491</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7968,7 +7968,7 @@
         <v>491</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7997,7 +7997,7 @@
         <v>491</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8026,7 +8026,7 @@
         <v>491</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8055,7 +8055,7 @@
         <v>491</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8084,7 +8084,7 @@
         <v>491</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8113,7 +8113,7 @@
         <v>491</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8142,7 +8142,7 @@
         <v>491</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8171,7 +8171,7 @@
         <v>491</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8200,7 +8200,7 @@
         <v>491</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8229,7 +8229,7 @@
         <v>491</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8258,7 +8258,7 @@
         <v>491</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8287,7 +8287,7 @@
         <v>506</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8316,7 +8316,7 @@
         <v>491</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8345,7 +8345,7 @@
         <v>491</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8374,7 +8374,7 @@
         <v>506</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8403,7 +8403,7 @@
         <v>506</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8432,7 +8432,7 @@
         <v>506</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8461,7 +8461,7 @@
         <v>506</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8490,7 +8490,7 @@
         <v>506</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8519,7 +8519,7 @@
         <v>506</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -8548,7 +8548,7 @@
         <v>491</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -8577,7 +8577,7 @@
         <v>491</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -8606,7 +8606,7 @@
         <v>491</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -8635,7 +8635,7 @@
         <v>491</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -8664,7 +8664,7 @@
         <v>491</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -8693,7 +8693,7 @@
         <v>491</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -8722,7 +8722,7 @@
         <v>491</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -8751,7 +8751,7 @@
         <v>491</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8780,7 +8780,7 @@
         <v>491</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8809,7 +8809,7 @@
         <v>491</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8838,7 +8838,7 @@
         <v>491</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8867,7 +8867,7 @@
         <v>491</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8896,7 +8896,7 @@
         <v>491</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8925,7 +8925,7 @@
         <v>491</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -8954,7 +8954,7 @@
         <v>491</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8983,7 +8983,7 @@
         <v>506</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9012,7 +9012,7 @@
         <v>491</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9041,7 +9041,7 @@
         <v>491</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9070,7 +9070,7 @@
         <v>491</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9099,7 +9099,7 @@
         <v>523</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9128,7 +9128,7 @@
         <v>523</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9157,7 +9157,7 @@
         <v>525</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9186,7 +9186,7 @@
         <v>526</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9215,7 +9215,7 @@
         <v>528</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9244,7 +9244,7 @@
         <v>528</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9273,7 +9273,7 @@
         <v>530</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9302,7 +9302,7 @@
         <v>530</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9331,7 +9331,7 @@
         <v>530</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9360,7 +9360,7 @@
         <v>532</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9389,7 +9389,7 @@
         <v>532</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9418,13 +9418,13 @@
         <v>532</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I18" r:id="rId1"/>
-    <hyperlink ref="I226" r:id="rId2"/>
+    <hyperlink ref="I18" r:id="rId1" display="http://pixmosaic.ru//upload/iblock/1f2/1f299cde27a78a1ae0b8ea3a13f3514f.jpg"/>
+    <hyperlink ref="I226" r:id="rId2" display="http://pixmosaic.ru//upload/iblock/9a0/9a060a3274f6e5a52af90d0879d36baf.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
